--- a/biology/Zoologie/Cervus/Cervus.xlsx
+++ b/biology/Zoologie/Cervus/Cervus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cervus est un genre de mammifères de la famille des Cervidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il comporte plusieurs espèces :
 Cervus albirostris -  Cerf de Thorold ou Cerf au museau blanc
@@ -600,9 +614,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude de l'ADN mitochondrial réalisée en 2014 a montré que la phylogénie interne du Cervus était la suivante[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude de l'ADN mitochondrial réalisée en 2014 a montré que la phylogénie interne du Cervus était la suivante :
 </t>
         </is>
       </c>
@@ -631,9 +647,11 @@
           <t>Espèces préhistoriques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles connus de la sous-famille Cervinae montrent qu'elle est dérivée des Pliocervinae du sud-est de l'Europe et de Chine[2]. Akhtar et al. mentionnent Bubenik (1990) qui voit la tribu Pliocervini comme un passage évolutionnaire important entre le Dicrocerini du Miocène moyen et les Cervini du Plio-Pléistocène[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles connus de la sous-famille Cervinae montrent qu'elle est dérivée des Pliocervinae du sud-est de l'Europe et de Chine. Akhtar et al. mentionnent Bubenik (1990) qui voit la tribu Pliocervini comme un passage évolutionnaire important entre le Dicrocerini du Miocène moyen et les Cervini du Plio-Pléistocène.
 </t>
         </is>
       </c>
